--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pros1-Mertk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pros1-Mertk.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.33750333333333</v>
+        <v>27.90240433333333</v>
       </c>
       <c r="H2">
-        <v>46.01251</v>
+        <v>83.707213</v>
       </c>
       <c r="I2">
-        <v>0.1440483515229199</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="J2">
-        <v>0.1440483515229198</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.731686</v>
+        <v>8.658142333333332</v>
       </c>
       <c r="N2">
-        <v>23.195058</v>
+        <v>25.974427</v>
       </c>
       <c r="O2">
-        <v>0.1963057092861305</v>
+        <v>0.1344393815966713</v>
       </c>
       <c r="P2">
-        <v>0.1963057092861306</v>
+        <v>0.1344393815966713</v>
       </c>
       <c r="Q2">
-        <v>118.5847597972867</v>
+        <v>241.5829881602168</v>
       </c>
       <c r="R2">
-        <v>1067.26283817558</v>
+        <v>2174.246893441951</v>
       </c>
       <c r="S2">
-        <v>0.02827751381720464</v>
+        <v>0.02923702930387368</v>
       </c>
       <c r="T2">
-        <v>0.02827751381720464</v>
+        <v>0.02923702930387368</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.33750333333333</v>
+        <v>27.90240433333333</v>
       </c>
       <c r="H3">
-        <v>46.01251</v>
+        <v>83.707213</v>
       </c>
       <c r="I3">
-        <v>0.1440483515229199</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="J3">
-        <v>0.1440483515229198</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.38936</v>
       </c>
       <c r="O3">
-        <v>0.07100129972758387</v>
+        <v>0.04342195384682981</v>
       </c>
       <c r="P3">
-        <v>0.07100129972758387</v>
+        <v>0.04342195384682981</v>
       </c>
       <c r="Q3">
-        <v>42.89061232151111</v>
+        <v>78.02777160596445</v>
       </c>
       <c r="R3">
-        <v>386.0155108936</v>
+        <v>702.24994445368</v>
       </c>
       <c r="S3">
-        <v>0.0102276201817432</v>
+        <v>0.009443132822939493</v>
       </c>
       <c r="T3">
-        <v>0.01022762018174319</v>
+        <v>0.009443132822939493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.33750333333333</v>
+        <v>27.90240433333333</v>
       </c>
       <c r="H4">
-        <v>46.01251</v>
+        <v>83.707213</v>
       </c>
       <c r="I4">
-        <v>0.1440483515229199</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="J4">
-        <v>0.1440483515229198</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.230753333333334</v>
+        <v>4.152187333333333</v>
       </c>
       <c r="N4">
-        <v>9.692260000000001</v>
+        <v>12.456562</v>
       </c>
       <c r="O4">
-        <v>0.08202807571705972</v>
+        <v>0.06447312551305152</v>
       </c>
       <c r="P4">
-        <v>0.08202807571705972</v>
+        <v>0.06447312551305154</v>
       </c>
       <c r="Q4">
-        <v>49.55169001917778</v>
+        <v>115.8560098424118</v>
       </c>
       <c r="R4">
-        <v>445.9652101726001</v>
+        <v>1042.704088581706</v>
       </c>
       <c r="S4">
-        <v>0.01181600908563971</v>
+        <v>0.01402120894599597</v>
       </c>
       <c r="T4">
-        <v>0.0118160090856397</v>
+        <v>0.01402120894599598</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.33750333333333</v>
+        <v>27.90240433333333</v>
       </c>
       <c r="H5">
-        <v>46.01251</v>
+        <v>83.707213</v>
       </c>
       <c r="I5">
-        <v>0.1440483515229199</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="J5">
-        <v>0.1440483515229198</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.627053</v>
+        <v>48.795048</v>
       </c>
       <c r="N5">
-        <v>76.881159</v>
+        <v>146.385144</v>
       </c>
       <c r="O5">
-        <v>0.6506649152692258</v>
+        <v>0.7576655390434474</v>
       </c>
       <c r="P5">
-        <v>0.6506649152692259</v>
+        <v>0.7576655390434474</v>
       </c>
       <c r="Q5">
-        <v>393.05501081101</v>
+        <v>1361.499158760408</v>
       </c>
       <c r="R5">
-        <v>3537.49509729909</v>
+        <v>12253.49242884367</v>
       </c>
       <c r="S5">
-        <v>0.09372720843833231</v>
+        <v>0.1647723256716989</v>
       </c>
       <c r="T5">
-        <v>0.09372720843833229</v>
+        <v>0.1647723256716989</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>64.92210766666666</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H6">
         <v>194.766323</v>
       </c>
       <c r="I6">
-        <v>0.6097421714296949</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="J6">
-        <v>0.6097421714296948</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.731686</v>
+        <v>8.658142333333332</v>
       </c>
       <c r="N6">
-        <v>23.195058</v>
+        <v>25.974427</v>
       </c>
       <c r="O6">
-        <v>0.1963057092861305</v>
+        <v>0.1344393815966713</v>
       </c>
       <c r="P6">
-        <v>0.1963057092861306</v>
+        <v>0.1344393815966713</v>
       </c>
       <c r="Q6">
-        <v>501.9573509368593</v>
+        <v>562.1048487579912</v>
       </c>
       <c r="R6">
-        <v>4517.616158431734</v>
+        <v>5058.943638821921</v>
       </c>
       <c r="S6">
-        <v>0.1196958694441717</v>
+        <v>0.06802745532763978</v>
       </c>
       <c r="T6">
-        <v>0.1196958694441716</v>
+        <v>0.06802745532763978</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.92210766666666</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H7">
         <v>194.766323</v>
       </c>
       <c r="I7">
-        <v>0.6097421714296949</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="J7">
-        <v>0.6097421714296948</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>8.38936</v>
       </c>
       <c r="O7">
-        <v>0.07100129972758387</v>
+        <v>0.04342195384682981</v>
       </c>
       <c r="P7">
-        <v>0.07100129972758387</v>
+        <v>0.04342195384682981</v>
       </c>
       <c r="Q7">
-        <v>181.5516443914755</v>
+        <v>181.5516443914756</v>
       </c>
       <c r="R7">
         <v>1633.96479952328</v>
       </c>
       <c r="S7">
-        <v>0.04329248667022759</v>
+        <v>0.02197187305142432</v>
       </c>
       <c r="T7">
-        <v>0.04329248667022759</v>
+        <v>0.02197187305142432</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.92210766666666</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H8">
         <v>194.766323</v>
       </c>
       <c r="I8">
-        <v>0.6097421714296949</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="J8">
-        <v>0.6097421714296948</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.230753333333334</v>
+        <v>4.152187333333333</v>
       </c>
       <c r="N8">
-        <v>9.692260000000001</v>
+        <v>12.456562</v>
       </c>
       <c r="O8">
-        <v>0.08202807571705972</v>
+        <v>0.06447312551305152</v>
       </c>
       <c r="P8">
-        <v>0.08202807571705972</v>
+        <v>0.06447312551305154</v>
       </c>
       <c r="Q8">
-        <v>209.7473157511089</v>
+        <v>269.5687531068363</v>
       </c>
       <c r="R8">
-        <v>1887.72584175998</v>
+        <v>2426.118777961526</v>
       </c>
       <c r="S8">
-        <v>0.05001597700591942</v>
+        <v>0.03262394257979108</v>
       </c>
       <c r="T8">
-        <v>0.05001597700591941</v>
+        <v>0.03262394257979109</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.92210766666666</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H9">
         <v>194.766323</v>
       </c>
       <c r="I9">
-        <v>0.6097421714296949</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="J9">
-        <v>0.6097421714296948</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.627053</v>
+        <v>48.795048</v>
       </c>
       <c r="N9">
-        <v>76.881159</v>
+        <v>146.385144</v>
       </c>
       <c r="O9">
-        <v>0.6506649152692258</v>
+        <v>0.7576655390434474</v>
       </c>
       <c r="P9">
-        <v>0.6506649152692259</v>
+        <v>0.7576655390434474</v>
       </c>
       <c r="Q9">
-        <v>1663.762294045373</v>
+        <v>3167.877359856168</v>
       </c>
       <c r="R9">
-        <v>14973.86064640836</v>
+        <v>28510.89623870551</v>
       </c>
       <c r="S9">
-        <v>0.3967378383093761</v>
+        <v>0.3833851212228904</v>
       </c>
       <c r="T9">
-        <v>0.3967378383093761</v>
+        <v>0.3833851212228904</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.537021</v>
+        <v>19.423329</v>
       </c>
       <c r="H10">
-        <v>46.611063</v>
+        <v>58.269987</v>
       </c>
       <c r="I10">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="J10">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.731686</v>
+        <v>8.658142333333332</v>
       </c>
       <c r="N10">
-        <v>23.195058</v>
+        <v>25.974427</v>
       </c>
       <c r="O10">
-        <v>0.1963057092861305</v>
+        <v>0.1344393815966713</v>
       </c>
       <c r="P10">
-        <v>0.1963057092861306</v>
+        <v>0.1344393815966713</v>
       </c>
       <c r="Q10">
-        <v>120.127367747406</v>
+        <v>168.169947069161</v>
       </c>
       <c r="R10">
-        <v>1081.146309726654</v>
+        <v>1513.529523622449</v>
       </c>
       <c r="S10">
-        <v>0.02864536140317266</v>
+        <v>0.02035238370025936</v>
       </c>
       <c r="T10">
-        <v>0.02864536140317266</v>
+        <v>0.02035238370025936</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.537021</v>
+        <v>19.423329</v>
       </c>
       <c r="H11">
-        <v>46.611063</v>
+        <v>58.269987</v>
       </c>
       <c r="I11">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="J11">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>8.38936</v>
       </c>
       <c r="O11">
-        <v>0.07100129972758387</v>
+        <v>0.04342195384682981</v>
       </c>
       <c r="P11">
-        <v>0.07100129972758387</v>
+        <v>0.04342195384682981</v>
       </c>
       <c r="Q11">
-        <v>43.44855416552001</v>
+        <v>54.31643312648</v>
       </c>
       <c r="R11">
-        <v>391.03698748968</v>
+        <v>488.84789813832</v>
       </c>
       <c r="S11">
-        <v>0.01036066601520551</v>
+        <v>0.006573522246308182</v>
       </c>
       <c r="T11">
-        <v>0.01036066601520551</v>
+        <v>0.006573522246308183</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.537021</v>
+        <v>19.423329</v>
       </c>
       <c r="H12">
-        <v>46.611063</v>
+        <v>58.269987</v>
       </c>
       <c r="I12">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="J12">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.230753333333334</v>
+        <v>4.152187333333333</v>
       </c>
       <c r="N12">
-        <v>9.692260000000001</v>
+        <v>12.456562</v>
       </c>
       <c r="O12">
-        <v>0.08202807571705972</v>
+        <v>0.06447312551305152</v>
       </c>
       <c r="P12">
-        <v>0.08202807571705972</v>
+        <v>0.06447312551305154</v>
       </c>
       <c r="Q12">
-        <v>50.19628238582001</v>
+        <v>80.64930064496599</v>
       </c>
       <c r="R12">
-        <v>451.7665414723801</v>
+        <v>725.843705804694</v>
       </c>
       <c r="S12">
-        <v>0.01196971745073948</v>
+        <v>0.009760397386632248</v>
       </c>
       <c r="T12">
-        <v>0.01196971745073948</v>
+        <v>0.009760397386632253</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.537021</v>
+        <v>19.423329</v>
       </c>
       <c r="H13">
-        <v>46.611063</v>
+        <v>58.269987</v>
       </c>
       <c r="I13">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="J13">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.627053</v>
+        <v>48.795048</v>
       </c>
       <c r="N13">
-        <v>76.881159</v>
+        <v>146.385144</v>
       </c>
       <c r="O13">
-        <v>0.6506649152692258</v>
+        <v>0.7576655390434474</v>
       </c>
       <c r="P13">
-        <v>0.6506649152692259</v>
+        <v>0.7576655390434474</v>
       </c>
       <c r="Q13">
-        <v>398.168060629113</v>
+        <v>947.762270874792</v>
       </c>
       <c r="R13">
-        <v>3583.512545662017</v>
+        <v>8529.860437873127</v>
       </c>
       <c r="S13">
-        <v>0.09494645732939234</v>
+        <v>0.114700763897726</v>
       </c>
       <c r="T13">
-        <v>0.09494645732939234</v>
+        <v>0.114700763897726</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.67805633333333</v>
+        <v>16.05459166666667</v>
       </c>
       <c r="H14">
-        <v>32.034169</v>
+        <v>48.163775</v>
       </c>
       <c r="I14">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="J14">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.731686</v>
+        <v>8.658142333333332</v>
       </c>
       <c r="N14">
-        <v>23.195058</v>
+        <v>25.974427</v>
       </c>
       <c r="O14">
-        <v>0.1963057092861305</v>
+        <v>0.1344393815966713</v>
       </c>
       <c r="P14">
-        <v>0.1963057092861306</v>
+        <v>0.1344393815966713</v>
       </c>
       <c r="Q14">
-        <v>82.55937865964465</v>
+        <v>139.0029397535472</v>
       </c>
       <c r="R14">
-        <v>743.0344079368019</v>
+        <v>1251.026457781925</v>
       </c>
       <c r="S14">
-        <v>0.01968696462158158</v>
+        <v>0.01682251326489844</v>
       </c>
       <c r="T14">
-        <v>0.01968696462158158</v>
+        <v>0.01682251326489844</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.67805633333333</v>
+        <v>16.05459166666667</v>
       </c>
       <c r="H15">
-        <v>32.034169</v>
+        <v>48.163775</v>
       </c>
       <c r="I15">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="J15">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>8.38936</v>
       </c>
       <c r="O15">
-        <v>0.07100129972758387</v>
+        <v>0.04342195384682981</v>
       </c>
       <c r="P15">
-        <v>0.07100129972758387</v>
+        <v>0.04342195384682981</v>
       </c>
       <c r="Q15">
-        <v>29.86068622687111</v>
+        <v>44.89591638155556</v>
       </c>
       <c r="R15">
-        <v>268.74617604184</v>
+        <v>404.063247434</v>
       </c>
       <c r="S15">
-        <v>0.007120526860407577</v>
+        <v>0.005433425726157823</v>
       </c>
       <c r="T15">
-        <v>0.007120526860407575</v>
+        <v>0.005433425726157823</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.67805633333333</v>
+        <v>16.05459166666667</v>
       </c>
       <c r="H16">
-        <v>32.034169</v>
+        <v>48.163775</v>
       </c>
       <c r="I16">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="J16">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.230753333333334</v>
+        <v>4.152187333333333</v>
       </c>
       <c r="N16">
-        <v>9.692260000000001</v>
+        <v>12.456562</v>
       </c>
       <c r="O16">
-        <v>0.08202807571705972</v>
+        <v>0.06447312551305152</v>
       </c>
       <c r="P16">
-        <v>0.08202807571705972</v>
+        <v>0.06447312551305154</v>
       </c>
       <c r="Q16">
-        <v>34.49816609243778</v>
+        <v>66.66167216017222</v>
       </c>
       <c r="R16">
-        <v>310.48349483194</v>
+        <v>599.95504944155</v>
       </c>
       <c r="S16">
-        <v>0.00822637217476112</v>
+        <v>0.008067576600632221</v>
       </c>
       <c r="T16">
-        <v>0.00822637217476112</v>
+        <v>0.008067576600632223</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.67805633333333</v>
+        <v>16.05459166666667</v>
       </c>
       <c r="H17">
-        <v>32.034169</v>
+        <v>48.163775</v>
       </c>
       <c r="I17">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="J17">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.627053</v>
+        <v>48.795048</v>
       </c>
       <c r="N17">
-        <v>76.881159</v>
+        <v>146.385144</v>
       </c>
       <c r="O17">
-        <v>0.6506649152692258</v>
+        <v>0.7576655390434474</v>
       </c>
       <c r="P17">
-        <v>0.6506649152692259</v>
+        <v>0.7576655390434474</v>
       </c>
       <c r="Q17">
-        <v>273.647115591319</v>
+        <v>783.3845709954001</v>
       </c>
       <c r="R17">
-        <v>2462.824040321871</v>
+        <v>7050.4611389586</v>
       </c>
       <c r="S17">
-        <v>0.06525341119212498</v>
+        <v>0.09480732825113207</v>
       </c>
       <c r="T17">
-        <v>0.06525341119212498</v>
+        <v>0.09480732825113207</v>
       </c>
     </row>
   </sheetData>
